--- a/tareas pendientes.xlsx
+++ b/tareas pendientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axel5\OneDrive\Desktop\INTECAP 2024\PROYECTO FINAL COMPLETO\BACKEND\BACKEND_PASTELES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullstackmañana\Downloads\REPOSITORIOS ANGULAR\BACKEND_PASTELES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5000FE67-CBC6-4C14-958B-B28A805BFE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B2F48-3C59-43BF-B9A6-58DE50D6074F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DE3A40D-7BA0-458D-B048-F9CC24615E11}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{0DE3A40D-7BA0-458D-B048-F9CC24615E11}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,16 +463,16 @@
   <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I4" sqref="I4:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="6" max="7" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="6" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -504,7 +504,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -520,9 +520,9 @@
         <v>6</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -538,9 +538,9 @@
         <v>6</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -551,9 +551,9 @@
         <v>6</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
